--- a/medicine/Mort/Appel_du_vide/Appel_du_vide.xlsx
+++ b/medicine/Mort/Appel_du_vide/Appel_du_vide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appel du vide est une expression utilisée pour désigner les pensées intrusives, les idées suicidaires ou l'envie de s'engager dans des comportements autodestructeurs au cours de la vie quotidienne[1]. Par exemple, on inclut, penser à faire un écart sur la voie opposée pendant la conduite, ou la sensation d'envie de sauter d'une falaise en se tenant à son sommet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appel du vide est une expression utilisée pour désigner les pensées intrusives, les idées suicidaires ou l'envie de s'engager dans des comportements autodestructeurs au cours de la vie quotidienne. Par exemple, on inclut, penser à faire un écart sur la voie opposée pendant la conduite, ou la sensation d'envie de sauter d'une falaise en se tenant à son sommet.
 </t>
         </is>
       </c>
